--- a/Team-Data/2008-09/2-11-2008-09.xlsx
+++ b/Team-Data/2008-09/2-11-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
         <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>0.596</v>
+        <v>0.588</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,16 +751,16 @@
         <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
         <v>7.8</v>
       </c>
       <c r="M2" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N2" t="n">
         <v>0.372</v>
@@ -705,25 +772,25 @@
         <v>25.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R2" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S2" t="n">
         <v>29.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U2" t="n">
         <v>21.2</v>
       </c>
       <c r="V2" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
@@ -732,7 +799,7 @@
         <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA2" t="n">
         <v>20.9</v>
@@ -744,10 +811,10 @@
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
@@ -756,37 +823,37 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -795,28 +862,28 @@
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA2" t="n">
         <v>19</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -878,22 +945,22 @@
         <v>16.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O3" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T3" t="n">
         <v>42.8</v>
@@ -914,7 +981,7 @@
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
         <v>22.8</v>
@@ -923,19 +990,19 @@
         <v>101.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -959,28 +1026,28 @@
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
@@ -989,7 +1056,7 @@
         <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
         <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.404</v>
+        <v>0.392</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J4" t="n">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M4" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O4" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P4" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T4" t="n">
         <v>39</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
         <v>15.6</v>
@@ -1090,37 +1157,37 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.2</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.7</v>
+        <v>-2</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1150,13 +1217,13 @@
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU4" t="n">
         <v>14</v>
@@ -1165,10 +1232,10 @@
         <v>26</v>
       </c>
       <c r="AW4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX4" t="n">
         <v>18</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>17</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,13 +1244,13 @@
         <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>0.431</v>
+        <v>0.442</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
@@ -1230,28 +1297,28 @@
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
         <v>0.45</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="P5" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R5" t="n">
         <v>12.1</v>
@@ -1260,13 +1327,13 @@
         <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
@@ -1278,43 +1345,43 @@
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.1</v>
+        <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1323,34 +1390,34 @@
         <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
         <v>15</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1359,13 +1426,13 @@
         <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -1397,49 +1464,49 @@
         <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37</v>
       </c>
       <c r="J6" t="n">
-        <v>78.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.384</v>
+        <v>0.381</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R6" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>41.8</v>
@@ -1448,73 +1515,73 @@
         <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>100.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>25</v>
       </c>
-      <c r="AI6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>20</v>
-      </c>
       <c r="AK6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="n">
         <v>5</v>
       </c>
-      <c r="AL6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>4</v>
-      </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1523,28 +1590,28 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV6" t="n">
         <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY6" t="n">
         <v>4</v>
       </c>
-      <c r="AY6" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -1654,34 +1721,34 @@
         <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF7" t="n">
         <v>9</v>
       </c>
-      <c r="AF7" t="n">
-        <v>8</v>
-      </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN7" t="n">
         <v>24</v>
@@ -1699,13 +1766,13 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT7" t="n">
         <v>5</v>
       </c>
-      <c r="AT7" t="n">
-        <v>4</v>
-      </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1714,10 +1781,10 @@
         <v>14</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1726,10 +1793,10 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -1758,31 +1825,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.679</v>
+        <v>0.673</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="J8" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M8" t="n">
         <v>17.8</v>
@@ -1797,46 +1864,46 @@
         <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
         <v>40.9</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
         <v>15.6</v>
       </c>
       <c r="W8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.5</v>
+        <v>103.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,25 +1915,25 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL8" t="n">
         <v>15</v>
       </c>
       <c r="AM8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN8" t="n">
         <v>17</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,16 +1945,16 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS8" t="n">
         <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
         <v>25</v>
@@ -1902,7 +1969,7 @@
         <v>27</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -1940,22 +2007,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>0.529</v>
+        <v>0.54</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
         <v>79.09999999999999</v>
@@ -1970,16 +2037,16 @@
         <v>13.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O9" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P9" t="n">
         <v>22.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R9" t="n">
         <v>10.8</v>
@@ -1994,7 +2061,7 @@
         <v>20.2</v>
       </c>
       <c r="V9" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
@@ -2009,31 +2076,31 @@
         <v>21.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB9" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2066,10 +2133,10 @@
         <v>17</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2081,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2090,7 +2157,7 @@
         <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2218,7 +2285,7 @@
         <v>2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -2230,7 +2297,7 @@
         <v>15</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR10" t="n">
         <v>8</v>
@@ -2251,10 +2318,10 @@
         <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
         <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,7 +2389,7 @@
         <v>35.5</v>
       </c>
       <c r="J11" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0.445</v>
@@ -2331,7 +2398,7 @@
         <v>7.6</v>
       </c>
       <c r="M11" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N11" t="n">
         <v>0.372</v>
@@ -2340,13 +2407,13 @@
         <v>19.8</v>
       </c>
       <c r="P11" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S11" t="n">
         <v>32.1</v>
@@ -2358,16 +2425,16 @@
         <v>20.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W11" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X11" t="n">
         <v>3.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z11" t="n">
         <v>19</v>
@@ -2379,10 +2446,10 @@
         <v>98.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2391,13 +2458,13 @@
         <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>16</v>
@@ -2406,13 +2473,13 @@
         <v>25</v>
       </c>
       <c r="AL11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM11" t="n">
         <v>8</v>
       </c>
-      <c r="AM11" t="n">
-        <v>6</v>
-      </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
         <v>10</v>
@@ -2424,13 +2491,13 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
         <v>21</v>
@@ -2451,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="n">
-        <v>0.389</v>
+        <v>0.396</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
@@ -2507,37 +2574,37 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L12" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M12" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N12" t="n">
         <v>0.371</v>
       </c>
       <c r="O12" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
         <v>23.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V12" t="n">
         <v>15</v>
@@ -2546,25 +2613,25 @@
         <v>6.9</v>
       </c>
       <c r="X12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2573,10 +2640,10 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
         <v>3</v>
@@ -2588,19 +2655,19 @@
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
@@ -2615,28 +2682,28 @@
         <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -2668,64 +2735,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>40</v>
       </c>
       <c r="G13" t="n">
-        <v>0.245</v>
+        <v>0.231</v>
       </c>
       <c r="H13" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>35.7</v>
+        <v>35.4</v>
       </c>
       <c r="J13" t="n">
-        <v>82.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L13" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="M13" t="n">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O13" t="n">
         <v>17</v>
       </c>
       <c r="P13" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R13" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S13" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T13" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="V13" t="n">
         <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>6.1</v>
@@ -2740,28 +2807,28 @@
         <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.5</v>
+        <v>93.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-7.6</v>
+        <v>-7.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
         <v>27</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2770,13 +2837,13 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2785,7 +2852,7 @@
         <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR13" t="n">
         <v>11</v>
@@ -2794,31 +2861,31 @@
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>25</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -2853,85 +2920,85 @@
         <v>51</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.804</v>
+        <v>0.824</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>84.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.479</v>
       </c>
       <c r="L14" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.372</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P14" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
         <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
         <v>23.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.9</v>
+        <v>108.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2967,13 +3034,13 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2982,28 +3049,28 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.288</v>
+        <v>0.294</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
@@ -3050,31 +3117,31 @@
         <v>34.6</v>
       </c>
       <c r="J15" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M15" t="n">
         <v>13.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O15" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R15" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S15" t="n">
         <v>28.8</v>
@@ -3083,16 +3150,16 @@
         <v>39</v>
       </c>
       <c r="U15" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="V15" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
         <v>5.1</v>
@@ -3101,16 +3168,16 @@
         <v>21.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,10 +3189,10 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
         <v>28</v>
@@ -3140,40 +3207,40 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
         <v>25</v>
       </c>
       <c r="AT15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
         <v>18</v>
@@ -3313,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3322,22 +3389,22 @@
         <v>11</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
       </c>
       <c r="AR16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS16" t="n">
         <v>22</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>25</v>
@@ -3352,13 +3419,13 @@
         <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
         <v>26</v>
@@ -3367,7 +3434,7 @@
         <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -3399,82 +3466,82 @@
         <v>54</v>
       </c>
       <c r="E17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>0.481</v>
+        <v>0.463</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J17" t="n">
         <v>81.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M17" t="n">
         <v>16.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="O17" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.783</v>
+        <v>0.785</v>
       </c>
       <c r="R17" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="T17" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y17" t="n">
         <v>4.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3489,13 +3556,13 @@
         <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3504,28 +3571,28 @@
         <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>7</v>
       </c>
       <c r="AP17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>8</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>9</v>
       </c>
       <c r="AR17" t="n">
         <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
@@ -3537,19 +3604,19 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3674,22 +3741,22 @@
         <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO18" t="n">
         <v>18</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>17</v>
       </c>
       <c r="AP18" t="n">
         <v>17</v>
@@ -3707,7 +3774,7 @@
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
@@ -3725,7 +3792,7 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3853,10 +3920,10 @@
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>27</v>
@@ -3865,7 +3932,7 @@
         <v>7</v>
       </c>
       <c r="AM19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN19" t="n">
         <v>8</v>
@@ -3874,10 +3941,10 @@
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
@@ -3892,10 +3959,10 @@
         <v>28</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>0.612</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="J20" t="n">
-        <v>76.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.383</v>
+        <v>0.385</v>
       </c>
       <c r="O20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S20" t="n">
         <v>28.8</v>
       </c>
       <c r="T20" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="U20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V20" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>4.3</v>
@@ -4011,31 +4078,31 @@
         <v>20.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.3</v>
+        <v>95.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG20" t="n">
         <v>8</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
         <v>29</v>
@@ -4044,16 +4111,16 @@
         <v>16</v>
       </c>
       <c r="AL20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM20" t="n">
         <v>9</v>
       </c>
-      <c r="AM20" t="n">
-        <v>10</v>
-      </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
@@ -4077,13 +4144,13 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="n">
-        <v>0.404</v>
+        <v>0.412</v>
       </c>
       <c r="H21" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J21" t="n">
-        <v>86.5</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.443</v>
       </c>
       <c r="L21" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="M21" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O21" t="n">
         <v>18</v>
@@ -4166,19 +4233,19 @@
         <v>0.799</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T21" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U21" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V21" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
@@ -4196,13 +4263,13 @@
         <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.1</v>
+        <v>104.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4214,13 +4281,13 @@
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK21" t="n">
         <v>28</v>
@@ -4250,16 +4317,16 @@
         <v>9</v>
       </c>
       <c r="AT21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU21" t="n">
         <v>9</v>
       </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,13 +4335,13 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J22" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M22" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="N22" t="n">
-        <v>0.37</v>
+        <v>0.373</v>
       </c>
       <c r="O22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R22" t="n">
         <v>12.1</v>
       </c>
       <c r="S22" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T22" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U22" t="n">
         <v>20.3</v>
       </c>
       <c r="V22" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W22" t="n">
         <v>6.8</v>
@@ -4372,19 +4439,19 @@
         <v>5.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.8</v>
+        <v>-5.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4399,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,28 +4481,28 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>13</v>
       </c>
       <c r="AR22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS22" t="n">
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>38</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>0.745</v>
+        <v>0.76</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="J23" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.463</v>
       </c>
       <c r="L23" t="n">
         <v>10.4</v>
       </c>
       <c r="M23" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.396</v>
+        <v>0.399</v>
       </c>
       <c r="O23" t="n">
         <v>19.6</v>
       </c>
       <c r="P23" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="R23" t="n">
         <v>10.1</v>
       </c>
       <c r="S23" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
         <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W23" t="n">
         <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y23" t="n">
         <v>3.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.2</v>
+        <v>102.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4623,25 +4690,25 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
       </c>
       <c r="BB23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="n">
         <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.529</v>
+        <v>0.52</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,43 +4755,43 @@
         <v>36.7</v>
       </c>
       <c r="J24" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M24" t="n">
         <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="O24" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P24" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="R24" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S24" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T24" t="n">
-        <v>42.5</v>
+        <v>42.9</v>
       </c>
       <c r="U24" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V24" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
@@ -4733,7 +4800,7 @@
         <v>5.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
         <v>20.1</v>
@@ -4742,31 +4809,31 @@
         <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>14</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>15</v>
       </c>
       <c r="AK24" t="n">
         <v>12</v>
@@ -4796,34 +4863,34 @@
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
         <v>16</v>
       </c>
       <c r="AV24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
       </c>
       <c r="AX24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB24" t="n">
         <v>23</v>
       </c>
       <c r="BC24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>0.549</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K25" t="n">
         <v>0.494</v>
@@ -4879,16 +4946,16 @@
         <v>6.3</v>
       </c>
       <c r="M25" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O25" t="n">
         <v>20.9</v>
       </c>
       <c r="P25" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="Q25" t="n">
         <v>0.761</v>
@@ -4897,7 +4964,7 @@
         <v>9.9</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T25" t="n">
         <v>41.6</v>
@@ -4906,16 +4973,16 @@
         <v>21.9</v>
       </c>
       <c r="V25" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="W25" t="n">
         <v>6.4</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z25" t="n">
         <v>20.4</v>
@@ -4924,13 +4991,13 @@
         <v>22.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4939,7 +5006,7 @@
         <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
@@ -4960,7 +5027,7 @@
         <v>20</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
@@ -4969,13 +5036,13 @@
         <v>4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT25" t="n">
         <v>14</v>
@@ -4993,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
         <v>12</v>
@@ -5005,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -5037,58 +5104,58 @@
         <v>50</v>
       </c>
       <c r="E26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
         <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P26" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="T26" t="n">
         <v>40.9</v>
       </c>
       <c r="U26" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V26" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
@@ -5097,22 +5164,22 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5127,13 +5194,13 @@
         <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,16 +5209,16 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
         <v>16</v>
       </c>
       <c r="AP26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,31 +5227,31 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX26" t="n">
         <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" t="n">
-        <v>0.204</v>
+        <v>0.208</v>
       </c>
       <c r="H27" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I27" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>81</v>
+        <v>81.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.445</v>
       </c>
       <c r="L27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O27" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P27" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.803</v>
+        <v>0.804</v>
       </c>
       <c r="R27" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S27" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="T27" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="U27" t="n">
         <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W27" t="n">
         <v>6.8</v>
@@ -5279,22 +5346,22 @@
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z27" t="n">
         <v>23.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>-9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>29</v>
@@ -5306,10 +5373,10 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
@@ -5324,7 +5391,7 @@
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>6</v>
@@ -5336,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
         <v>28</v>
@@ -5348,7 +5415,7 @@
         <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW27" t="n">
         <v>24</v>
@@ -5357,7 +5424,7 @@
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>35</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,37 +5483,37 @@
         <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L28" t="n">
         <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N28" t="n">
         <v>0.392</v>
       </c>
       <c r="O28" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P28" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T28" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="U28" t="n">
         <v>22</v>
@@ -5461,25 +5528,25 @@
         <v>4.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
         <v>5</v>
@@ -5494,16 +5561,16 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
@@ -5518,10 +5585,10 @@
         <v>15</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>22</v>
@@ -5539,7 +5606,7 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" t="n">
         <v>34</v>
       </c>
       <c r="G29" t="n">
-        <v>0.382</v>
+        <v>0.37</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5613,13 +5680,13 @@
         <v>0.374</v>
       </c>
       <c r="O29" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.828</v>
+        <v>0.827</v>
       </c>
       <c r="R29" t="n">
         <v>8.699999999999999</v>
@@ -5631,7 +5698,7 @@
         <v>39</v>
       </c>
       <c r="U29" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="V29" t="n">
         <v>13.2</v>
@@ -5649,19 +5716,19 @@
         <v>19.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -5673,16 +5740,16 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>24</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>23</v>
       </c>
       <c r="AK29" t="n">
         <v>11</v>
       </c>
       <c r="AL29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM29" t="n">
         <v>21</v>
@@ -5691,25 +5758,25 @@
         <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS29" t="n">
         <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
         <v>8</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J30" t="n">
-        <v>79.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
@@ -5792,25 +5859,25 @@
         <v>14.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O30" t="n">
         <v>21.6</v>
       </c>
       <c r="P30" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S30" t="n">
         <v>29.3</v>
       </c>
       <c r="T30" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U30" t="n">
         <v>24.6</v>
@@ -5831,25 +5898,25 @@
         <v>22.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="AC30" t="n">
         <v>2.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
         <v>15</v>
@@ -5858,7 +5925,7 @@
         <v>7</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,40 +5946,40 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
       </c>
       <c r="AZ30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA30" t="n">
         <v>1</v>
       </c>
       <c r="BB30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" t="n">
-        <v>0.208</v>
+        <v>0.212</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5968,19 +6035,19 @@
         <v>0.444</v>
       </c>
       <c r="L31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.328</v>
+        <v>0.324</v>
       </c>
       <c r="O31" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P31" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q31" t="n">
         <v>0.762</v>
@@ -5989,13 +6056,13 @@
         <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T31" t="n">
         <v>39.7</v>
       </c>
       <c r="U31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V31" t="n">
         <v>13.8</v>
@@ -6007,7 +6074,7 @@
         <v>3.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
         <v>20.5</v>
@@ -6016,13 +6083,13 @@
         <v>19.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>-8</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6064,7 +6131,7 @@
         <v>18</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
         <v>29</v>
@@ -6079,13 +6146,13 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>27</v>
       </c>
       <c r="AY31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-11-2008-09</t>
+          <t>2009-02-11</t>
         </is>
       </c>
     </row>
